--- a/Team-Data/2013-14/11-30-2013-14.xlsx
+++ b/Team-Data/2013-14/11-30-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" t="n">
         <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5</v>
+        <v>0.529</v>
       </c>
       <c r="H2" t="n">
         <v>48</v>
@@ -684,64 +751,64 @@
         <v>36.8</v>
       </c>
       <c r="J2" t="n">
-        <v>80.3</v>
+        <v>80.2</v>
       </c>
       <c r="K2" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L2" t="n">
         <v>7.7</v>
       </c>
       <c r="M2" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="N2" t="n">
-        <v>0.354</v>
+        <v>0.351</v>
       </c>
       <c r="O2" t="n">
-        <v>17.4</v>
+        <v>17.2</v>
       </c>
       <c r="P2" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.746</v>
+        <v>0.739</v>
       </c>
       <c r="R2" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="S2" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T2" t="n">
         <v>40.1</v>
       </c>
       <c r="U2" t="n">
-        <v>24</v>
+        <v>24.3</v>
       </c>
       <c r="V2" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W2" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X2" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AA2" t="n">
         <v>20.4</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.7</v>
+        <v>98.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.9</v>
+        <v>-0.5</v>
       </c>
       <c r="AD2" t="n">
         <v>2</v>
@@ -750,10 +817,10 @@
         <v>9</v>
       </c>
       <c r="AF2" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
         <v>22</v>
@@ -762,19 +829,19 @@
         <v>18</v>
       </c>
       <c r="AJ2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK2" t="n">
         <v>9</v>
       </c>
       <c r="AL2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN2" t="n">
         <v>15</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>16</v>
       </c>
       <c r="AO2" t="n">
         <v>14</v>
@@ -783,7 +850,7 @@
         <v>13</v>
       </c>
       <c r="AQ2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR2" t="n">
         <v>29</v>
@@ -798,7 +865,7 @@
         <v>4</v>
       </c>
       <c r="AV2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AW2" t="n">
         <v>7</v>
@@ -810,7 +877,7 @@
         <v>8</v>
       </c>
       <c r="AZ2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA2" t="n">
         <v>18</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-30-2013-14</t>
+          <t>2013-11-30</t>
         </is>
       </c>
     </row>
@@ -848,49 +915,49 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" t="n">
-        <v>0.368</v>
+        <v>0.389</v>
       </c>
       <c r="H3" t="n">
         <v>48</v>
       </c>
       <c r="I3" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J3" t="n">
-        <v>81.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L3" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="M3" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0.333</v>
+        <v>0.341</v>
       </c>
       <c r="O3" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="P3" t="n">
-        <v>19.6</v>
+        <v>19.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.761</v>
+        <v>0.763</v>
       </c>
       <c r="R3" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S3" t="n">
         <v>30.9</v>
@@ -902,40 +969,40 @@
         <v>17.8</v>
       </c>
       <c r="V3" t="n">
-        <v>16.7</v>
+        <v>17.1</v>
       </c>
       <c r="W3" t="n">
         <v>7.3</v>
       </c>
       <c r="X3" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>93</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>-3.6</v>
+        <v>-3.4</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
       </c>
       <c r="AE3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH3" t="n">
         <v>22</v>
@@ -947,7 +1014,7 @@
         <v>21</v>
       </c>
       <c r="AK3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL3" t="n">
         <v>25</v>
@@ -956,13 +1023,13 @@
         <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO3" t="n">
         <v>25</v>
       </c>
       <c r="AP3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
         <v>13</v>
@@ -971,31 +1038,31 @@
         <v>17</v>
       </c>
       <c r="AS3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AT3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU3" t="n">
         <v>29</v>
       </c>
       <c r="AV3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY3" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ3" t="n">
         <v>19</v>
       </c>
       <c r="BA3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB3" t="n">
         <v>24</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-30-2013-14</t>
+          <t>2013-11-30</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
         <v>12</v>
       </c>
       <c r="G4" t="n">
-        <v>0.294</v>
+        <v>0.25</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
@@ -1048,19 +1115,19 @@
         <v>34.8</v>
       </c>
       <c r="J4" t="n">
-        <v>80.2</v>
+        <v>80.7</v>
       </c>
       <c r="K4" t="n">
-        <v>0.433</v>
+        <v>0.431</v>
       </c>
       <c r="L4" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M4" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="N4" t="n">
-        <v>0.36</v>
+        <v>0.351</v>
       </c>
       <c r="O4" t="n">
         <v>19.5</v>
@@ -1069,64 +1136,64 @@
         <v>25.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.756</v>
+        <v>0.755</v>
       </c>
       <c r="R4" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="S4" t="n">
         <v>31.3</v>
       </c>
       <c r="T4" t="n">
-        <v>41.8</v>
+        <v>42</v>
       </c>
       <c r="U4" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V4" t="n">
         <v>15</v>
       </c>
       <c r="W4" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X4" t="n">
         <v>4.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.6</v>
+        <v>23.4</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="AC4" t="n">
-        <v>-6.6</v>
+        <v>-7.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
         <v>25</v>
       </c>
       <c r="AF4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH4" t="n">
         <v>9</v>
       </c>
       <c r="AI4" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AJ4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK4" t="n">
         <v>21</v>
@@ -1138,7 +1205,7 @@
         <v>24</v>
       </c>
       <c r="AN4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO4" t="n">
         <v>6</v>
@@ -1153,7 +1220,7 @@
         <v>16</v>
       </c>
       <c r="AS4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT4" t="n">
         <v>19</v>
@@ -1168,13 +1235,13 @@
         <v>24</v>
       </c>
       <c r="AX4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ4" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="BA4" t="n">
         <v>11</v>
@@ -1183,7 +1250,7 @@
         <v>22</v>
       </c>
       <c r="BC4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-30-2013-14</t>
+          <t>2013-11-30</t>
         </is>
       </c>
     </row>
@@ -1290,13 +1357,13 @@
         <v>-2.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG5" t="n">
         <v>16</v>
@@ -1320,7 +1387,7 @@
         <v>27</v>
       </c>
       <c r="AN5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO5" t="n">
         <v>7</v>
@@ -1335,13 +1402,13 @@
         <v>10</v>
       </c>
       <c r="AS5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AT5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV5" t="n">
         <v>6</v>
@@ -1353,7 +1420,7 @@
         <v>8</v>
       </c>
       <c r="AY5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ5" t="n">
         <v>9</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-30-2013-14</t>
+          <t>2013-11-30</t>
         </is>
       </c>
     </row>
@@ -1394,28 +1461,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" t="n">
-        <v>0.467</v>
+        <v>0.5</v>
       </c>
       <c r="H6" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I6" t="n">
-        <v>34.9</v>
+        <v>34.6</v>
       </c>
       <c r="J6" t="n">
-        <v>81.09999999999999</v>
+        <v>81</v>
       </c>
       <c r="K6" t="n">
-        <v>0.43</v>
+        <v>0.427</v>
       </c>
       <c r="L6" t="n">
         <v>4.9</v>
@@ -1424,34 +1491,34 @@
         <v>14.9</v>
       </c>
       <c r="N6" t="n">
-        <v>0.332</v>
+        <v>0.327</v>
       </c>
       <c r="O6" t="n">
-        <v>17.7</v>
+        <v>18.3</v>
       </c>
       <c r="P6" t="n">
-        <v>22.3</v>
+        <v>22.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.793</v>
+        <v>0.803</v>
       </c>
       <c r="R6" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="S6" t="n">
-        <v>33.3</v>
+        <v>33.8</v>
       </c>
       <c r="T6" t="n">
-        <v>45.8</v>
+        <v>46.5</v>
       </c>
       <c r="U6" t="n">
-        <v>21.5</v>
+        <v>20.8</v>
       </c>
       <c r="V6" t="n">
-        <v>16.5</v>
+        <v>16.9</v>
       </c>
       <c r="W6" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X6" t="n">
         <v>4.1</v>
@@ -1460,34 +1527,34 @@
         <v>6.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="AB6" t="n">
         <v>92.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AE6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
         <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI6" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AJ6" t="n">
         <v>22</v>
@@ -1502,28 +1569,28 @@
         <v>29</v>
       </c>
       <c r="AN6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO6" t="n">
         <v>11</v>
       </c>
       <c r="AP6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AU6" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AV6" t="n">
         <v>22</v>
@@ -1541,13 +1608,13 @@
         <v>8</v>
       </c>
       <c r="BA6" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BB6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-30-2013-14</t>
+          <t>2013-11-30</t>
         </is>
       </c>
     </row>
@@ -1576,49 +1643,49 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
         <v>12</v>
       </c>
       <c r="G7" t="n">
-        <v>0.294</v>
+        <v>0.25</v>
       </c>
       <c r="H7" t="n">
         <v>48.9</v>
       </c>
       <c r="I7" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="J7" t="n">
-        <v>83.5</v>
+        <v>83.8</v>
       </c>
       <c r="K7" t="n">
-        <v>0.419</v>
+        <v>0.415</v>
       </c>
       <c r="L7" t="n">
         <v>6.9</v>
       </c>
       <c r="M7" t="n">
-        <v>19.7</v>
+        <v>20</v>
       </c>
       <c r="N7" t="n">
-        <v>0.349</v>
+        <v>0.344</v>
       </c>
       <c r="O7" t="n">
         <v>15.7</v>
       </c>
       <c r="P7" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.754</v>
+        <v>0.749</v>
       </c>
       <c r="R7" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S7" t="n">
         <v>30.9</v>
@@ -1627,43 +1694,43 @@
         <v>42.1</v>
       </c>
       <c r="U7" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="V7" t="n">
-        <v>16.6</v>
+        <v>16.9</v>
       </c>
       <c r="W7" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="X7" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z7" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="AB7" t="n">
-        <v>92.5</v>
+        <v>92.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>-8.4</v>
+        <v>-9.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
         <v>25</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH7" t="n">
         <v>4</v>
@@ -1672,7 +1739,7 @@
         <v>24</v>
       </c>
       <c r="AJ7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK7" t="n">
         <v>28</v>
@@ -1681,52 +1748,52 @@
         <v>21</v>
       </c>
       <c r="AM7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO7" t="n">
         <v>23</v>
       </c>
       <c r="AP7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ7" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AR7" t="n">
         <v>13</v>
       </c>
       <c r="AS7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AT7" t="n">
         <v>18</v>
       </c>
       <c r="AU7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV7" t="n">
         <v>23</v>
       </c>
       <c r="AW7" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AX7" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AY7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ7" t="n">
         <v>15</v>
       </c>
       <c r="BA7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB7" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BC7" t="n">
         <v>28</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-30-2013-14</t>
+          <t>2013-11-30</t>
         </is>
       </c>
     </row>
@@ -1758,82 +1825,82 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8" t="n">
-        <v>0.556</v>
+        <v>0.588</v>
       </c>
       <c r="H8" t="n">
         <v>48</v>
       </c>
       <c r="I8" t="n">
-        <v>39</v>
+        <v>38.6</v>
       </c>
       <c r="J8" t="n">
-        <v>83.8</v>
+        <v>83.3</v>
       </c>
       <c r="K8" t="n">
-        <v>0.466</v>
+        <v>0.464</v>
       </c>
       <c r="L8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="M8" t="n">
         <v>23.1</v>
       </c>
       <c r="N8" t="n">
-        <v>0.382</v>
+        <v>0.388</v>
       </c>
       <c r="O8" t="n">
-        <v>17.7</v>
+        <v>18.2</v>
       </c>
       <c r="P8" t="n">
-        <v>21.6</v>
+        <v>22.2</v>
       </c>
       <c r="Q8" t="n">
         <v>0.8169999999999999</v>
       </c>
       <c r="R8" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S8" t="n">
-        <v>30.6</v>
+        <v>30.9</v>
       </c>
       <c r="T8" t="n">
-        <v>41</v>
+        <v>41.2</v>
       </c>
       <c r="U8" t="n">
-        <v>22.8</v>
+        <v>22.5</v>
       </c>
       <c r="V8" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="W8" t="n">
         <v>9.4</v>
       </c>
       <c r="X8" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y8" t="n">
         <v>3.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>19.1</v>
+        <v>19.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.5</v>
+        <v>104.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="AD8" t="n">
         <v>2</v>
@@ -1851,67 +1918,67 @@
         <v>22</v>
       </c>
       <c r="AI8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM8" t="n">
         <v>8</v>
       </c>
       <c r="AN8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AQ8" t="n">
         <v>1</v>
       </c>
       <c r="AR8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS8" t="n">
         <v>20</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>23</v>
       </c>
       <c r="AT8" t="n">
         <v>23</v>
       </c>
       <c r="AU8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AV8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY8" t="n">
         <v>5</v>
       </c>
       <c r="AZ8" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BA8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-30-2013-14</t>
+          <t>2013-11-30</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>1.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE9" t="n">
         <v>9</v>
@@ -2033,7 +2100,7 @@
         <v>22</v>
       </c>
       <c r="AI9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ9" t="n">
         <v>5</v>
@@ -2048,7 +2115,7 @@
         <v>15</v>
       </c>
       <c r="AN9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO9" t="n">
         <v>9</v>
@@ -2057,16 +2124,16 @@
         <v>5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR9" t="n">
         <v>9</v>
       </c>
       <c r="AS9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU9" t="n">
         <v>14</v>
@@ -2090,10 +2157,10 @@
         <v>6</v>
       </c>
       <c r="BB9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-30-2013-14</t>
+          <t>2013-11-30</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
@@ -2209,7 +2276,7 @@
         <v>21</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH10" t="n">
         <v>14</v>
@@ -2218,13 +2285,13 @@
         <v>11</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK10" t="n">
         <v>12</v>
       </c>
       <c r="AL10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM10" t="n">
         <v>22</v>
@@ -2248,13 +2315,13 @@
         <v>29</v>
       </c>
       <c r="AT10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU10" t="n">
         <v>22</v>
       </c>
       <c r="AV10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW10" t="n">
         <v>1</v>
@@ -2263,13 +2330,13 @@
         <v>21</v>
       </c>
       <c r="AY10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ10" t="n">
         <v>13</v>
       </c>
       <c r="BA10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB10" t="n">
         <v>18</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-30-2013-14</t>
+          <t>2013-11-30</t>
         </is>
       </c>
     </row>
@@ -2382,19 +2449,19 @@
         <v>3.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
         <v>9</v>
       </c>
       <c r="AF11" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AG11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH11" t="n">
         <v>10</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>9</v>
       </c>
       <c r="AI11" t="n">
         <v>10</v>
@@ -2421,7 +2488,7 @@
         <v>18</v>
       </c>
       <c r="AQ11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR11" t="n">
         <v>26</v>
@@ -2436,7 +2503,7 @@
         <v>7</v>
       </c>
       <c r="AV11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW11" t="n">
         <v>19</v>
@@ -2448,10 +2515,10 @@
         <v>15</v>
       </c>
       <c r="AZ11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-30-2013-14</t>
+          <t>2013-11-30</t>
         </is>
       </c>
     </row>
@@ -2486,88 +2553,88 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" t="n">
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>0.722</v>
+        <v>0.706</v>
       </c>
       <c r="H12" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="I12" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="J12" t="n">
-        <v>77.5</v>
+        <v>76.8</v>
       </c>
       <c r="K12" t="n">
-        <v>0.489</v>
+        <v>0.492</v>
       </c>
       <c r="L12" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="M12" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="N12" t="n">
-        <v>0.381</v>
+        <v>0.378</v>
       </c>
       <c r="O12" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="P12" t="n">
-        <v>33.2</v>
+        <v>33.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.704</v>
+        <v>0.707</v>
       </c>
       <c r="R12" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S12" t="n">
-        <v>35.9</v>
+        <v>35.5</v>
       </c>
       <c r="T12" t="n">
-        <v>46.4</v>
+        <v>45.9</v>
       </c>
       <c r="U12" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V12" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="W12" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="X12" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>25.7</v>
+        <v>26.1</v>
       </c>
       <c r="AB12" t="n">
-        <v>109.4</v>
+        <v>109.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AD12" t="n">
         <v>2</v>
       </c>
       <c r="AE12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF12" t="n">
         <v>6</v>
@@ -2579,7 +2646,7 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ12" t="n">
         <v>29</v>
@@ -2594,25 +2661,25 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP12" t="n">
         <v>1</v>
       </c>
       <c r="AQ12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AS12" t="n">
         <v>2</v>
       </c>
       <c r="AT12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU12" t="n">
         <v>15</v>
@@ -2621,16 +2688,16 @@
         <v>30</v>
       </c>
       <c r="AW12" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AX12" t="n">
         <v>3</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AZ12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-30-2013-14</t>
+          <t>2013-11-30</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>11.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2785,7 +2852,7 @@
         <v>12</v>
       </c>
       <c r="AQ13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR13" t="n">
         <v>24</v>
@@ -2794,7 +2861,7 @@
         <v>3</v>
       </c>
       <c r="AT13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU13" t="n">
         <v>21</v>
@@ -2803,13 +2870,13 @@
         <v>20</v>
       </c>
       <c r="AW13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
       </c>
       <c r="AY13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ13" t="n">
         <v>5</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-30-2013-14</t>
+          <t>2013-11-30</t>
         </is>
       </c>
     </row>
@@ -2928,19 +2995,19 @@
         <v>5.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
@@ -2958,7 +3025,7 @@
         <v>5</v>
       </c>
       <c r="AN14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
@@ -2985,13 +3052,13 @@
         <v>12</v>
       </c>
       <c r="AW14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ14" t="n">
         <v>29</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-30-2013-14</t>
+          <t>2013-11-30</t>
         </is>
       </c>
     </row>
@@ -3110,22 +3177,22 @@
         <v>-1.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE15" t="n">
         <v>9</v>
       </c>
       <c r="AF15" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
         <v>22</v>
       </c>
       <c r="AI15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ15" t="n">
         <v>3</v>
@@ -3146,7 +3213,7 @@
         <v>27</v>
       </c>
       <c r="AP15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ15" t="n">
         <v>22</v>
@@ -3161,7 +3228,7 @@
         <v>10</v>
       </c>
       <c r="AU15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV15" t="n">
         <v>15</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-30-2013-14</t>
+          <t>2013-11-30</t>
         </is>
       </c>
     </row>
@@ -3214,94 +3281,94 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
       </c>
       <c r="F16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5</v>
+        <v>0.533</v>
       </c>
       <c r="H16" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I16" t="n">
         <v>36.6</v>
       </c>
       <c r="J16" t="n">
-        <v>80.2</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L16" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="M16" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="N16" t="n">
-        <v>0.324</v>
+        <v>0.314</v>
       </c>
       <c r="O16" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="P16" t="n">
-        <v>20.4</v>
+        <v>21</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.783</v>
+        <v>0.784</v>
       </c>
       <c r="R16" t="n">
-        <v>10.1</v>
+        <v>10.3</v>
       </c>
       <c r="S16" t="n">
-        <v>30.9</v>
+        <v>31.2</v>
       </c>
       <c r="T16" t="n">
-        <v>41</v>
+        <v>41.5</v>
       </c>
       <c r="U16" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="V16" t="n">
         <v>14.3</v>
       </c>
       <c r="W16" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X16" t="n">
         <v>4.3</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.9</v>
+        <v>20.6</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>-2.4</v>
+        <v>-1.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF16" t="n">
         <v>9</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
         <v>7</v>
@@ -3322,25 +3389,25 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AO16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR16" t="n">
         <v>21</v>
       </c>
-      <c r="AP16" t="n">
-        <v>24</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>25</v>
-      </c>
       <c r="AS16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT16" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AU16" t="n">
         <v>13</v>
@@ -3349,25 +3416,25 @@
         <v>5</v>
       </c>
       <c r="AW16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX16" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AY16" t="n">
         <v>19</v>
       </c>
       <c r="AZ16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA16" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="BB16" t="n">
         <v>23</v>
       </c>
       <c r="BC16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-30-2013-14</t>
+          <t>2013-11-30</t>
         </is>
       </c>
     </row>
@@ -3474,13 +3541,13 @@
         <v>9.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE17" t="n">
         <v>3</v>
       </c>
       <c r="AF17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG17" t="n">
         <v>3</v>
@@ -3528,22 +3595,22 @@
         <v>2</v>
       </c>
       <c r="AV17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB17" t="n">
         <v>4</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-30-2013-14</t>
+          <t>2013-11-30</t>
         </is>
       </c>
     </row>
@@ -3578,88 +3645,88 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
         <v>13</v>
       </c>
       <c r="G18" t="n">
-        <v>0.188</v>
+        <v>0.133</v>
       </c>
       <c r="H18" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I18" t="n">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="J18" t="n">
-        <v>81.3</v>
+        <v>81.5</v>
       </c>
       <c r="K18" t="n">
-        <v>0.415</v>
+        <v>0.412</v>
       </c>
       <c r="L18" t="n">
         <v>7.5</v>
       </c>
       <c r="M18" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="N18" t="n">
-        <v>0.382</v>
+        <v>0.377</v>
       </c>
       <c r="O18" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="P18" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.774</v>
+        <v>0.786</v>
       </c>
       <c r="R18" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S18" t="n">
-        <v>29.5</v>
+        <v>28.9</v>
       </c>
       <c r="T18" t="n">
-        <v>39.9</v>
+        <v>39.3</v>
       </c>
       <c r="U18" t="n">
-        <v>21.1</v>
+        <v>20.6</v>
       </c>
       <c r="V18" t="n">
-        <v>16.8</v>
+        <v>17</v>
       </c>
       <c r="W18" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="X18" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="Z18" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="AA18" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AB18" t="n">
-        <v>89.2</v>
+        <v>89</v>
       </c>
       <c r="AC18" t="n">
-        <v>-9.6</v>
+        <v>-10.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF18" t="n">
         <v>29</v>
@@ -3686,7 +3753,7 @@
         <v>21</v>
       </c>
       <c r="AN18" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AO18" t="n">
         <v>28</v>
@@ -3695,34 +3762,34 @@
         <v>28</v>
       </c>
       <c r="AQ18" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AR18" t="n">
         <v>21</v>
       </c>
       <c r="AS18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT18" t="n">
         <v>29</v>
       </c>
       <c r="AU18" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AV18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW18" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AX18" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AY18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA18" t="n">
         <v>26</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-30-2013-14</t>
+          <t>2013-11-30</t>
         </is>
       </c>
     </row>
@@ -3760,55 +3827,55 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" t="n">
         <v>9</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>0.471</v>
       </c>
       <c r="H19" t="n">
         <v>48.3</v>
       </c>
       <c r="I19" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J19" t="n">
-        <v>89.59999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="K19" t="n">
-        <v>0.431</v>
+        <v>0.427</v>
       </c>
       <c r="L19" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="M19" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="N19" t="n">
-        <v>0.329</v>
+        <v>0.323</v>
       </c>
       <c r="O19" t="n">
         <v>21.1</v>
       </c>
       <c r="P19" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="R19" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="S19" t="n">
-        <v>32.3</v>
+        <v>32.5</v>
       </c>
       <c r="T19" t="n">
-        <v>45.3</v>
+        <v>45.4</v>
       </c>
       <c r="U19" t="n">
         <v>23.3</v>
@@ -3817,22 +3884,22 @@
         <v>14.7</v>
       </c>
       <c r="W19" t="n">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="X19" t="n">
         <v>3.4</v>
       </c>
       <c r="Y19" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z19" t="n">
-        <v>17.6</v>
+        <v>18.1</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="AB19" t="n">
-        <v>106.1</v>
+        <v>105.7</v>
       </c>
       <c r="AC19" t="n">
         <v>4.8</v>
@@ -3841,16 +3908,16 @@
         <v>2</v>
       </c>
       <c r="AE19" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AF19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG19" t="n">
         <v>16</v>
       </c>
-      <c r="AG19" t="n">
-        <v>13</v>
-      </c>
       <c r="AH19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI19" t="n">
         <v>8</v>
@@ -3859,43 +3926,43 @@
         <v>1</v>
       </c>
       <c r="AK19" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM19" t="n">
         <v>6</v>
       </c>
       <c r="AN19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO19" t="n">
         <v>3</v>
       </c>
       <c r="AP19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR19" t="n">
         <v>3</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>2</v>
       </c>
       <c r="AS19" t="n">
         <v>12</v>
       </c>
       <c r="AT19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AU19" t="n">
         <v>8</v>
       </c>
       <c r="AV19" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AW19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX19" t="n">
         <v>29</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-30-2013-14</t>
+          <t>2013-11-30</t>
         </is>
       </c>
     </row>
@@ -4020,13 +4087,13 @@
         <v>1.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF20" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AG20" t="n">
         <v>18</v>
@@ -4053,7 +4120,7 @@
         <v>5</v>
       </c>
       <c r="AO20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP20" t="n">
         <v>15</v>
@@ -4062,16 +4129,16 @@
         <v>9</v>
       </c>
       <c r="AR20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS20" t="n">
         <v>25</v>
       </c>
       <c r="AT20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV20" t="n">
         <v>3</v>
@@ -4083,19 +4150,19 @@
         <v>1</v>
       </c>
       <c r="AY20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ20" t="n">
         <v>22</v>
       </c>
       <c r="BA20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB20" t="n">
         <v>11</v>
       </c>
       <c r="BC20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-30-2013-14</t>
+          <t>2013-11-30</t>
         </is>
       </c>
     </row>
@@ -4202,19 +4269,19 @@
         <v>-6.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE21" t="n">
         <v>28</v>
       </c>
       <c r="AF21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG21" t="n">
         <v>28</v>
       </c>
       <c r="AH21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI21" t="n">
         <v>23</v>
@@ -4226,13 +4293,13 @@
         <v>27</v>
       </c>
       <c r="AL21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM21" t="n">
         <v>4</v>
       </c>
       <c r="AN21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -4247,34 +4314,34 @@
         <v>12</v>
       </c>
       <c r="AS21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY21" t="n">
         <v>13</v>
       </c>
       <c r="AZ21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA21" t="n">
         <v>27</v>
       </c>
       <c r="BB21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC21" t="n">
         <v>25</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-30-2013-14</t>
+          <t>2013-11-30</t>
         </is>
       </c>
     </row>
@@ -4384,13 +4451,13 @@
         <v>4.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE22" t="n">
         <v>7</v>
       </c>
       <c r="AF22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG22" t="n">
         <v>5</v>
@@ -4414,16 +4481,16 @@
         <v>23</v>
       </c>
       <c r="AN22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP22" t="n">
         <v>2</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR22" t="n">
         <v>11</v>
@@ -4435,7 +4502,7 @@
         <v>1</v>
       </c>
       <c r="AU22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AV22" t="n">
         <v>21</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-30-2013-14</t>
+          <t>2013-11-30</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-1.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE23" t="n">
         <v>21</v>
@@ -4575,7 +4642,7 @@
         <v>21</v>
       </c>
       <c r="AG23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH23" t="n">
         <v>14</v>
@@ -4587,25 +4654,25 @@
         <v>17</v>
       </c>
       <c r="AK23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL23" t="n">
         <v>12</v>
       </c>
       <c r="AM23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP23" t="n">
         <v>24</v>
       </c>
-      <c r="AP23" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR23" t="n">
         <v>27</v>
@@ -4614,19 +4681,19 @@
         <v>10</v>
       </c>
       <c r="AT23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AU23" t="n">
         <v>16</v>
       </c>
-      <c r="AU23" t="n">
+      <c r="AV23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX23" t="n">
         <v>17</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>27</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>18</v>
       </c>
       <c r="AY23" t="n">
         <v>27</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-30-2013-14</t>
+          <t>2013-11-30</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-6.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE24" t="n">
         <v>21</v>
@@ -4760,7 +4827,7 @@
         <v>24</v>
       </c>
       <c r="AH24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI24" t="n">
         <v>2</v>
@@ -4778,10 +4845,10 @@
         <v>11</v>
       </c>
       <c r="AN24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP24" t="n">
         <v>11</v>
@@ -4805,7 +4872,7 @@
         <v>29</v>
       </c>
       <c r="AW24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AX24" t="n">
         <v>14</v>
@@ -4817,7 +4884,7 @@
         <v>7</v>
       </c>
       <c r="BA24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB24" t="n">
         <v>9</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-30-2013-14</t>
+          <t>2013-11-30</t>
         </is>
       </c>
     </row>
@@ -4852,85 +4919,85 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
       </c>
       <c r="F25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G25" t="n">
-        <v>0.529</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="H25" t="n">
         <v>48.3</v>
       </c>
       <c r="I25" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="J25" t="n">
-        <v>81.2</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.466</v>
+        <v>0.465</v>
       </c>
       <c r="L25" t="n">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="M25" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.368</v>
+        <v>0.363</v>
       </c>
       <c r="O25" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P25" t="n">
-        <v>22.6</v>
+        <v>22.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.742</v>
+        <v>0.744</v>
       </c>
       <c r="R25" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="S25" t="n">
-        <v>30.9</v>
+        <v>31.4</v>
       </c>
       <c r="T25" t="n">
-        <v>41.1</v>
+        <v>41.5</v>
       </c>
       <c r="U25" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="V25" t="n">
-        <v>15.9</v>
+        <v>16.1</v>
       </c>
       <c r="W25" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X25" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.9</v>
+        <v>20.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="AB25" t="n">
-        <v>101.7</v>
+        <v>101.6</v>
       </c>
       <c r="AC25" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE25" t="n">
         <v>9</v>
@@ -4942,10 +5009,10 @@
         <v>10</v>
       </c>
       <c r="AH25" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AI25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ25" t="n">
         <v>20</v>
@@ -4966,40 +5033,40 @@
         <v>17</v>
       </c>
       <c r="AP25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR25" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AS25" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AT25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU25" t="n">
         <v>26</v>
       </c>
       <c r="AV25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW25" t="n">
         <v>8</v>
       </c>
       <c r="AX25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ25" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB25" t="n">
         <v>13</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-30-2013-14</t>
+          <t>2013-11-30</t>
         </is>
       </c>
     </row>
@@ -5112,13 +5179,13 @@
         <v>5</v>
       </c>
       <c r="AD26" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE26" t="n">
         <v>3</v>
       </c>
       <c r="AF26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG26" t="n">
         <v>3</v>
@@ -5127,7 +5194,7 @@
         <v>14</v>
       </c>
       <c r="AI26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ26" t="n">
         <v>6</v>
@@ -5151,7 +5218,7 @@
         <v>21</v>
       </c>
       <c r="AQ26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR26" t="n">
         <v>6</v>
@@ -5163,7 +5230,7 @@
         <v>9</v>
       </c>
       <c r="AU26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV26" t="n">
         <v>4</v>
@@ -5181,7 +5248,7 @@
         <v>5</v>
       </c>
       <c r="BA26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB26" t="n">
         <v>7</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-30-2013-14</t>
+          <t>2013-11-30</t>
         </is>
       </c>
     </row>
@@ -5294,16 +5361,16 @@
         <v>-3.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE27" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AF27" t="n">
         <v>21</v>
       </c>
       <c r="AG27" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AH27" t="n">
         <v>11</v>
@@ -5312,25 +5379,25 @@
         <v>21</v>
       </c>
       <c r="AJ27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK27" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL27" t="n">
         <v>20</v>
       </c>
       <c r="AM27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO27" t="n">
         <v>15</v>
       </c>
       <c r="AP27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ27" t="n">
         <v>10</v>
@@ -5342,16 +5409,16 @@
         <v>24</v>
       </c>
       <c r="AT27" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AU27" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AV27" t="n">
         <v>2</v>
       </c>
       <c r="AW27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX27" t="n">
         <v>30</v>
@@ -5363,7 +5430,7 @@
         <v>30</v>
       </c>
       <c r="BA27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB27" t="n">
         <v>21</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-30-2013-14</t>
+          <t>2013-11-30</t>
         </is>
       </c>
     </row>
@@ -5398,58 +5465,58 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E28" t="n">
         <v>14</v>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>0.824</v>
+        <v>0.875</v>
       </c>
       <c r="H28" t="n">
         <v>48</v>
       </c>
       <c r="I28" t="n">
-        <v>40.5</v>
+        <v>40.3</v>
       </c>
       <c r="J28" t="n">
-        <v>83.09999999999999</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K28" t="n">
         <v>0.488</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="M28" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="N28" t="n">
-        <v>0.393</v>
+        <v>0.396</v>
       </c>
       <c r="O28" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="P28" t="n">
-        <v>16.9</v>
+        <v>17.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.75</v>
+        <v>0.753</v>
       </c>
       <c r="R28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="S28" t="n">
-        <v>34.2</v>
+        <v>34.6</v>
       </c>
       <c r="T28" t="n">
-        <v>42.4</v>
+        <v>43</v>
       </c>
       <c r="U28" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="V28" t="n">
         <v>14.7</v>
@@ -5458,25 +5525,25 @@
         <v>8.4</v>
       </c>
       <c r="X28" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="Y28" t="n">
         <v>4.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="AA28" t="n">
         <v>17.8</v>
       </c>
       <c r="AB28" t="n">
-        <v>101.9</v>
+        <v>101.7</v>
       </c>
       <c r="AC28" t="n">
-        <v>10.3</v>
+        <v>11.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5494,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK28" t="n">
         <v>3</v>
@@ -5503,7 +5570,7 @@
         <v>10</v>
       </c>
       <c r="AM28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN28" t="n">
         <v>6</v>
@@ -5515,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR28" t="n">
         <v>28</v>
@@ -5524,19 +5591,19 @@
         <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AU28" t="n">
         <v>3</v>
       </c>
       <c r="AV28" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AW28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX28" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AY28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-30-2013-14</t>
+          <t>2013-11-30</t>
         </is>
       </c>
     </row>
@@ -5658,13 +5725,13 @@
         <v>0.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE29" t="n">
         <v>21</v>
       </c>
       <c r="AF29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG29" t="n">
         <v>20</v>
@@ -5676,10 +5743,10 @@
         <v>26</v>
       </c>
       <c r="AJ29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL29" t="n">
         <v>18</v>
@@ -5688,13 +5755,13 @@
         <v>14</v>
       </c>
       <c r="AN29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO29" t="n">
         <v>5</v>
       </c>
       <c r="AP29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ29" t="n">
         <v>12</v>
@@ -5712,19 +5779,19 @@
         <v>30</v>
       </c>
       <c r="AV29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW29" t="n">
         <v>26</v>
       </c>
       <c r="AX29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY29" t="n">
         <v>21</v>
       </c>
       <c r="AZ29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA29" t="n">
         <v>4</v>
@@ -5733,7 +5800,7 @@
         <v>20</v>
       </c>
       <c r="BC29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-30-2013-14</t>
+          <t>2013-11-30</t>
         </is>
       </c>
     </row>
@@ -5762,88 +5829,88 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" t="n">
         <v>15</v>
       </c>
       <c r="G30" t="n">
-        <v>0.167</v>
+        <v>0.118</v>
       </c>
       <c r="H30" t="n">
         <v>48.3</v>
       </c>
       <c r="I30" t="n">
-        <v>34.1</v>
+        <v>33.8</v>
       </c>
       <c r="J30" t="n">
-        <v>80.2</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.426</v>
+        <v>0.421</v>
       </c>
       <c r="L30" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="M30" t="n">
         <v>18.4</v>
       </c>
       <c r="N30" t="n">
-        <v>0.308</v>
+        <v>0.297</v>
       </c>
       <c r="O30" t="n">
-        <v>16.6</v>
+        <v>16.1</v>
       </c>
       <c r="P30" t="n">
-        <v>23.2</v>
+        <v>22.9</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.715</v>
+        <v>0.704</v>
       </c>
       <c r="R30" t="n">
         <v>12.2</v>
       </c>
       <c r="S30" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="T30" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U30" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="V30" t="n">
-        <v>17.2</v>
+        <v>17.4</v>
       </c>
       <c r="W30" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X30" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA30" t="n">
-        <v>22.2</v>
+        <v>21.9</v>
       </c>
       <c r="AB30" t="n">
-        <v>90.5</v>
+        <v>89.2</v>
       </c>
       <c r="AC30" t="n">
-        <v>-9.699999999999999</v>
+        <v>-10.7</v>
       </c>
       <c r="AD30" t="n">
         <v>2</v>
       </c>
       <c r="AE30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF30" t="n">
         <v>30</v>
@@ -5852,34 +5919,34 @@
         <v>30</v>
       </c>
       <c r="AH30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI30" t="n">
         <v>28</v>
       </c>
       <c r="AJ30" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK30" t="n">
         <v>26</v>
       </c>
-      <c r="AK30" t="n">
-        <v>25</v>
-      </c>
       <c r="AL30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM30" t="n">
         <v>25</v>
       </c>
       <c r="AN30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO30" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AP30" t="n">
         <v>14</v>
       </c>
       <c r="AQ30" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR30" t="n">
         <v>7</v>
@@ -5888,28 +5955,28 @@
         <v>30</v>
       </c>
       <c r="AT30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>25</v>
+      </c>
+      <c r="AV30" t="n">
         <v>27</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>24</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>26</v>
       </c>
       <c r="AW30" t="n">
         <v>18</v>
       </c>
       <c r="AX30" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AY30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ30" t="n">
         <v>23</v>
       </c>
       <c r="BA30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB30" t="n">
         <v>28</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-30-2013-14</t>
+          <t>2013-11-30</t>
         </is>
       </c>
     </row>
@@ -5944,55 +6011,55 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" t="n">
         <v>9</v>
       </c>
       <c r="G31" t="n">
-        <v>0.471</v>
+        <v>0.438</v>
       </c>
       <c r="H31" t="n">
-        <v>49.2</v>
+        <v>49.3</v>
       </c>
       <c r="I31" t="n">
         <v>37.6</v>
       </c>
       <c r="J31" t="n">
-        <v>84.09999999999999</v>
+        <v>84.5</v>
       </c>
       <c r="K31" t="n">
-        <v>0.447</v>
+        <v>0.445</v>
       </c>
       <c r="L31" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M31" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="N31" t="n">
-        <v>0.39</v>
+        <v>0.383</v>
       </c>
       <c r="O31" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="P31" t="n">
-        <v>20.4</v>
+        <v>19.8</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.734</v>
+        <v>0.741</v>
       </c>
       <c r="R31" t="n">
-        <v>10.2</v>
+        <v>10.5</v>
       </c>
       <c r="S31" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="T31" t="n">
-        <v>41</v>
+        <v>41.2</v>
       </c>
       <c r="U31" t="n">
         <v>23.9</v>
@@ -6001,37 +6068,37 @@
         <v>15.6</v>
       </c>
       <c r="W31" t="n">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="X31" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z31" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>99.09999999999999</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>-1.7</v>
+        <v>-2.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG31" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AH31" t="n">
         <v>1</v>
@@ -6040,64 +6107,64 @@
         <v>16</v>
       </c>
       <c r="AJ31" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AK31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM31" t="n">
         <v>9</v>
       </c>
       <c r="AN31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO31" t="n">
         <v>26</v>
       </c>
       <c r="AP31" t="n">
+        <v>27</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>20</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>18</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AT31" t="n">
         <v>25</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>22</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>23</v>
       </c>
       <c r="AU31" t="n">
         <v>6</v>
       </c>
       <c r="AV31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY31" t="n">
         <v>6</v>
       </c>
       <c r="AZ31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB31" t="n">
         <v>16</v>
       </c>
       <c r="BC31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-30-2013-14</t>
+          <t>2013-11-30</t>
         </is>
       </c>
     </row>
